--- a/data/trans_orig/P63-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P63-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56AA452-D0F9-416F-8801-F01A21709F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F56680B4-C326-4502-893B-E0388B313325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9046073F-62C0-4F14-B973-4ADD821304EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B1521D3-7FF4-4EF7-9EC3-B78ABF2CD45B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -77,1843 +77,1873 @@
     <t>74,55%</t>
   </si>
   <si>
-    <t>65,25%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>75,17%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>61,37%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>24,83%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
   </si>
   <si>
     <t>38,63%</t>
   </si>
   <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>68,74%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>73,82%</t>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>31,26%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>26,18%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AFFE22-36BD-423F-8EFD-D02194182C2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC35C40-5DA8-4B76-948D-B4E41CA6003E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3221,7 +3251,7 @@
         <v>94</v>
       </c>
       <c r="D19" s="7">
-        <v>92535</v>
+        <v>92534</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3323,7 +3353,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="7">
-        <v>113734</v>
+        <v>113733</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3555,7 +3585,7 @@
         <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>493</v>
@@ -3564,13 +3594,13 @@
         <v>506796</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3615,13 @@
         <v>51051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>252</v>
@@ -3600,13 +3630,13 @@
         <v>261229</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>304</v>
@@ -3615,13 +3645,13 @@
         <v>312281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3719,13 @@
         <v>1065214</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1073</v>
@@ -3704,13 +3734,13 @@
         <v>1100174</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>2149</v>
@@ -3719,13 +3749,13 @@
         <v>2165389</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3770,13 @@
         <v>298201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1238</v>
@@ -3755,28 +3785,28 @@
         <v>1248760</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1544</v>
       </c>
       <c r="N29" s="7">
-        <v>1546961</v>
+        <v>1546960</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3848,7 @@
         <v>3693</v>
       </c>
       <c r="N30" s="7">
-        <v>3712350</v>
+        <v>3712349</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3862,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE755C5B-11AB-446F-B0BF-4881199354A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4FAE80-33DB-4AFE-AC21-001168B4F2F9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +4008,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +4053,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4098,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4147,13 @@
         <v>283915</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -4132,13 +4162,13 @@
         <v>165469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>417</v>
@@ -4147,13 +4177,13 @@
         <v>449384</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4198,13 @@
         <v>46323</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>215</v>
@@ -4183,13 +4213,13 @@
         <v>233475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>259</v>
@@ -4198,13 +4228,13 @@
         <v>279798</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4302,13 @@
         <v>151053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -4287,13 +4317,13 @@
         <v>143603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>275</v>
@@ -4302,13 +4332,13 @@
         <v>294655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4353,13 @@
         <v>29792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -4338,13 +4368,13 @@
         <v>113986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -4353,13 +4383,13 @@
         <v>143779</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4457,13 @@
         <v>360683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -4442,13 +4472,13 @@
         <v>349854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>659</v>
@@ -4457,13 +4487,13 @@
         <v>710538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4508,13 @@
         <v>37541</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -4493,13 +4523,13 @@
         <v>128450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
@@ -4508,13 +4538,13 @@
         <v>165990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4612,13 @@
         <v>112019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4597,13 +4627,13 @@
         <v>90069</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -4612,13 +4642,13 @@
         <v>202088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4663,13 @@
         <v>16303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -4648,13 +4678,13 @@
         <v>72811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -4663,13 +4693,13 @@
         <v>89114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4767,13 @@
         <v>132817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -4752,13 +4782,13 @@
         <v>125560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -4767,13 +4797,13 @@
         <v>258377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4818,13 @@
         <v>22898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4803,13 +4833,13 @@
         <v>99179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -4818,13 +4848,13 @@
         <v>122077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4922,13 @@
         <v>340562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>262</v>
@@ -4907,13 +4937,13 @@
         <v>293887</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>576</v>
@@ -4922,13 +4952,13 @@
         <v>634448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4973,13 @@
         <v>47102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>202</v>
@@ -4958,13 +4988,13 @@
         <v>216831</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>250</v>
@@ -4973,13 +5003,13 @@
         <v>263933</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5077,13 @@
         <v>348052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>291</v>
@@ -5062,13 +5092,13 @@
         <v>317610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>602</v>
@@ -5077,13 +5107,13 @@
         <v>665662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5128,13 @@
         <v>66923</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>229</v>
@@ -5113,13 +5143,13 @@
         <v>244620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -5128,13 +5158,13 @@
         <v>311543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5232,13 @@
         <v>1729101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1365</v>
@@ -5217,13 +5247,13 @@
         <v>1486051</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>2966</v>
@@ -5232,13 +5262,13 @@
         <v>3215153</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,28 +5283,28 @@
         <v>266882</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>1044</v>
       </c>
       <c r="I29" s="7">
-        <v>1109351</v>
+        <v>1109352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>1309</v>
@@ -5283,13 +5313,13 @@
         <v>1376233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,7 +5346,7 @@
         <v>2409</v>
       </c>
       <c r="I30" s="7">
-        <v>2595402</v>
+        <v>2595403</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5345,7 +5375,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C034D4A-CB76-4CEA-B462-3649CC16ABE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F331B3C-2C96-49D7-BB08-645054CE3ACF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5523,13 @@
         <v>137963</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>126</v>
@@ -5508,13 +5538,13 @@
         <v>132681</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>255</v>
@@ -5523,13 +5553,13 @@
         <v>270644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5574,13 @@
         <v>19632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5559,13 +5589,13 @@
         <v>55047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -5574,13 +5604,13 @@
         <v>74679</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5678,13 @@
         <v>281822</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -5663,13 +5693,13 @@
         <v>164425</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>426</v>
@@ -5678,13 +5708,13 @@
         <v>446247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5729,13 @@
         <v>50457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>219</v>
@@ -5714,13 +5744,13 @@
         <v>243896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -5729,13 +5759,13 @@
         <v>294353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5833,13 @@
         <v>166264</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -5818,13 +5848,13 @@
         <v>167354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -5833,13 +5863,13 @@
         <v>333618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5884,13 @@
         <v>25917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>78</v>
@@ -5869,13 +5899,13 @@
         <v>81440</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -5884,13 +5914,13 @@
         <v>107357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5988,13 @@
         <v>216507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -5973,13 +6003,13 @@
         <v>193378</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -5988,13 +6018,13 @@
         <v>409886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6039,13 @@
         <v>41277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -6024,13 +6054,13 @@
         <v>112046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -6039,13 +6069,13 @@
         <v>153322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6143,13 @@
         <v>118345</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -6128,13 +6158,13 @@
         <v>108644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -6143,13 +6173,13 @@
         <v>226990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6194,13 @@
         <v>11946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -6179,13 +6209,13 @@
         <v>54525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -6194,13 +6224,13 @@
         <v>66470</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6298,13 @@
         <v>128297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -6283,13 +6313,13 @@
         <v>81361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -6298,13 +6328,13 @@
         <v>209657</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6349,13 @@
         <v>27324</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>108</v>
@@ -6334,13 +6364,13 @@
         <v>116186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -6349,13 +6379,13 @@
         <v>143510</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6453,13 @@
         <v>238133</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -6438,13 +6468,13 @@
         <v>206740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>403</v>
@@ -6453,13 +6483,13 @@
         <v>444873</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6504,13 @@
         <v>53049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -6489,13 +6519,13 @@
         <v>195409</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -6504,13 +6534,13 @@
         <v>248458</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6608,13 @@
         <v>391182</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>324</v>
@@ -6593,13 +6623,13 @@
         <v>358769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>703</v>
@@ -6608,13 +6638,13 @@
         <v>749951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6659,13 @@
         <v>57543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>197</v>
@@ -6644,13 +6674,13 @@
         <v>223477</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
@@ -6659,13 +6689,13 @@
         <v>281020</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6763,13 @@
         <v>1678512</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>1322</v>
@@ -6748,13 +6778,13 @@
         <v>1413352</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>2953</v>
@@ -6763,13 +6793,13 @@
         <v>3091864</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6814,13 @@
         <v>287145</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>992</v>
@@ -6799,13 +6829,13 @@
         <v>1082025</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>1264</v>
@@ -6814,13 +6844,13 @@
         <v>1369170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6906,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07813438-5723-4E11-90C9-611072E70B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953BC9AF-A4FC-4F9B-AF78-C42CDD3E0D4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +7054,13 @@
         <v>84231</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>203</v>
@@ -7039,13 +7069,13 @@
         <v>96667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>326</v>
@@ -7054,13 +7084,13 @@
         <v>180898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7105,13 @@
         <v>13108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -7090,13 +7120,13 @@
         <v>39093</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -7105,13 +7135,13 @@
         <v>52201</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7209,13 @@
         <v>223947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
         <v>300</v>
@@ -7194,13 +7224,13 @@
         <v>219180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>493</v>
@@ -7209,13 +7239,13 @@
         <v>443128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7260,13 @@
         <v>36190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -7245,13 +7275,13 @@
         <v>154685</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
@@ -7260,13 +7290,13 @@
         <v>190874</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7364,13 @@
         <v>138245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>274</v>
@@ -7349,13 +7379,13 @@
         <v>171057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="M10" s="7">
         <v>462</v>
@@ -7364,13 +7394,13 @@
         <v>309302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7415,13 @@
         <v>26597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -7400,13 +7430,13 @@
         <v>66780</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -7415,13 +7445,13 @@
         <v>93377</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7519,13 @@
         <v>129491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
@@ -7504,13 +7534,13 @@
         <v>129072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="M13" s="7">
         <v>387</v>
@@ -7519,13 +7549,13 @@
         <v>258562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>316</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7570,13 @@
         <v>18002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="H14" s="7">
         <v>163</v>
@@ -7555,13 +7585,13 @@
         <v>100332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="M14" s="7">
         <v>169</v>
@@ -7570,13 +7600,13 @@
         <v>118334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7674,13 @@
         <v>55162</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="H16" s="7">
         <v>141</v>
@@ -7659,13 +7689,13 @@
         <v>57889</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>557</v>
       </c>
       <c r="M16" s="7">
         <v>236</v>
@@ -7674,13 +7704,13 @@
         <v>113051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7725,13 @@
         <v>13848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -7710,13 +7740,13 @@
         <v>53340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>564</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -7725,13 +7755,13 @@
         <v>67188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7829,13 @@
         <v>120286</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>244</v>
@@ -7814,13 +7844,13 @@
         <v>122425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -7829,13 +7859,13 @@
         <v>242711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>575</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7880,13 @@
         <v>15493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -7865,13 +7895,13 @@
         <v>56961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7880,13 +7910,13 @@
         <v>72454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7984,13 @@
         <v>235735</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>380</v>
@@ -7969,13 +7999,13 @@
         <v>348062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>644</v>
@@ -7984,13 +8014,13 @@
         <v>583797</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8035,13 @@
         <v>46638</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -8020,13 +8050,13 @@
         <v>107976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>355</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="M23" s="7">
         <v>134</v>
@@ -8035,13 +8065,13 @@
         <v>154614</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8139,13 @@
         <v>284711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>355</v>
@@ -8124,13 +8154,13 @@
         <v>253373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="M25" s="7">
         <v>695</v>
@@ -8139,13 +8169,13 @@
         <v>538084</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8190,13 @@
         <v>63518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="H26" s="7">
         <v>323</v>
@@ -8175,13 +8205,13 @@
         <v>275195</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="M26" s="7">
         <v>357</v>
@@ -8190,13 +8220,13 @@
         <v>338714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8294,13 @@
         <v>1271807</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>2126</v>
@@ -8279,13 +8309,13 @@
         <v>1397726</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>557</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="M28" s="7">
         <v>3689</v>
@@ -8294,13 +8324,13 @@
         <v>2669534</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8345,13 @@
         <v>233394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="H29" s="7">
         <v>1159</v>
@@ -8330,13 +8360,13 @@
         <v>854361</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
         <v>1271</v>
@@ -8345,13 +8375,13 @@
         <v>1087754</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8437,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P63-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P63-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F56680B4-C326-4502-893B-E0388B313325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F8C674-330A-4893-B2B6-D69F7499CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B1521D3-7FF4-4EF7-9EC3-B78ABF2CD45B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A389351-0469-464D-B11D-29CBCAF1B296}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -77,1804 +77,1798 @@
     <t>74,55%</t>
   </si>
   <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2016 (Tasa respuesta: 64,2%)</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>68,6%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
   </si>
   <si>
     <t>24,83%</t>
@@ -2355,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC35C40-5DA8-4B76-948D-B4E41CA6003E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE31497A-9E10-4016-A9F7-D9A70E8DC346}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3117,10 +3111,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -3129,13 +3123,13 @@
         <v>155929</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3144,13 @@
         <v>18723</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -3165,13 +3159,13 @@
         <v>71968</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -3180,13 +3174,13 @@
         <v>90691</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,7 +3236,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3254,13 +3248,13 @@
         <v>92534</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -3269,13 +3263,13 @@
         <v>82206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>174</v>
@@ -3284,13 +3278,13 @@
         <v>174741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3299,13 @@
         <v>21199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -3320,13 +3314,13 @@
         <v>113121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -3335,13 +3329,13 @@
         <v>134319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3391,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3409,13 +3403,13 @@
         <v>217923</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -3424,13 +3418,13 @@
         <v>211260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -3439,13 +3433,13 @@
         <v>429182</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3454,13 @@
         <v>60343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>244</v>
@@ -3475,13 +3469,13 @@
         <v>246412</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>307</v>
@@ -3490,13 +3484,13 @@
         <v>306755</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3546,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3564,13 +3558,13 @@
         <v>223494</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>265</v>
@@ -3579,13 +3573,13 @@
         <v>283302</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>493</v>
@@ -3594,13 +3588,13 @@
         <v>506796</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3609,13 @@
         <v>51051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>252</v>
@@ -3630,13 +3624,13 @@
         <v>261229</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>304</v>
@@ -3645,13 +3639,13 @@
         <v>312281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3713,13 @@
         <v>1065214</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>1073</v>
@@ -3734,13 +3728,13 @@
         <v>1100174</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>2149</v>
@@ -3749,13 +3743,13 @@
         <v>2165389</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3764,13 @@
         <v>298201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>1238</v>
@@ -3785,13 +3779,13 @@
         <v>1248760</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>1544</v>
@@ -3800,13 +3794,13 @@
         <v>1546960</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,7 +3856,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4FAE80-33DB-4AFE-AC21-001168B4F2F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B5F316-C07A-44E9-AED6-3E1228A09AEF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3903,7 +3897,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,39 +4002,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,39 +4047,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,39 +4092,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4141,13 @@
         <v>283915</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -4162,13 +4156,13 @@
         <v>165469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>417</v>
@@ -4177,13 +4171,13 @@
         <v>449384</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4192,13 @@
         <v>46323</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>215</v>
@@ -4213,13 +4207,13 @@
         <v>233475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>259</v>
@@ -4228,13 +4222,13 @@
         <v>279798</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4296,13 @@
         <v>151053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -4317,13 +4311,13 @@
         <v>143603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>275</v>
@@ -4332,13 +4326,13 @@
         <v>294655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4347,13 @@
         <v>29792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -4368,13 +4362,13 @@
         <v>113986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -4383,13 +4377,13 @@
         <v>143779</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4451,13 @@
         <v>360683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -4472,13 +4466,13 @@
         <v>349854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>659</v>
@@ -4487,13 +4481,13 @@
         <v>710538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4502,13 @@
         <v>37541</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -4523,13 +4517,13 @@
         <v>128450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
@@ -4538,13 +4532,13 @@
         <v>165990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4606,13 @@
         <v>112019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4627,13 +4621,13 @@
         <v>90069</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -4642,13 +4636,13 @@
         <v>202088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4657,13 @@
         <v>16303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -4678,13 +4672,13 @@
         <v>72811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -4693,13 +4687,13 @@
         <v>89114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4749,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4767,13 +4761,13 @@
         <v>132817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -4782,13 +4776,13 @@
         <v>125560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -4797,13 +4791,13 @@
         <v>258377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4812,13 @@
         <v>22898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4833,13 +4827,13 @@
         <v>99179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -4848,13 +4842,13 @@
         <v>122077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,7 +4904,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4922,13 +4916,13 @@
         <v>340562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>262</v>
@@ -4937,13 +4931,13 @@
         <v>293887</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>576</v>
@@ -4952,13 +4946,13 @@
         <v>634448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4967,13 @@
         <v>47102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>202</v>
@@ -4988,13 +4982,13 @@
         <v>216831</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>250</v>
@@ -5003,13 +4997,13 @@
         <v>263933</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,7 +5059,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5077,13 +5071,13 @@
         <v>348052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>291</v>
@@ -5092,13 +5086,13 @@
         <v>317610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>602</v>
@@ -5107,13 +5101,13 @@
         <v>665662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5122,13 @@
         <v>66923</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>229</v>
@@ -5143,13 +5137,13 @@
         <v>244620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -5158,13 +5152,13 @@
         <v>311543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5226,13 @@
         <v>1729101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1365</v>
@@ -5247,13 +5241,13 @@
         <v>1486051</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>2966</v>
@@ -5262,13 +5256,13 @@
         <v>3215153</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5277,13 @@
         <v>266882</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>1044</v>
@@ -5298,13 +5292,13 @@
         <v>1109352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>1309</v>
@@ -5313,13 +5307,13 @@
         <v>1376233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5369,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5399,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F331B3C-2C96-49D7-BB08-645054CE3ACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82A49CE-E24C-4A2B-8E73-BA08A0860F74}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5416,7 +5410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5523,13 +5517,13 @@
         <v>137963</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>126</v>
@@ -5538,13 +5532,13 @@
         <v>132681</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>255</v>
@@ -5553,13 +5547,13 @@
         <v>270644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5568,13 @@
         <v>19632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5589,13 +5583,13 @@
         <v>55047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -5604,13 +5598,13 @@
         <v>74679</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5672,13 @@
         <v>281822</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -5693,13 +5687,13 @@
         <v>164425</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>426</v>
@@ -5708,13 +5702,13 @@
         <v>446247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5723,13 @@
         <v>50457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>219</v>
@@ -5744,13 +5738,13 @@
         <v>243896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -5759,13 +5753,13 @@
         <v>294353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5827,13 @@
         <v>166264</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -5848,13 +5842,13 @@
         <v>167354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -5863,13 +5857,13 @@
         <v>333618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5878,13 @@
         <v>25917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>78</v>
@@ -5899,13 +5893,13 @@
         <v>81440</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -5914,13 +5908,13 @@
         <v>107357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5982,13 @@
         <v>216507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -6003,13 +5997,13 @@
         <v>193378</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -6018,13 +6012,13 @@
         <v>409886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6033,13 @@
         <v>41277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -6054,13 +6048,13 @@
         <v>112046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -6069,13 +6063,13 @@
         <v>153322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6137,13 @@
         <v>118345</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -6158,13 +6152,13 @@
         <v>108644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -6173,13 +6167,13 @@
         <v>226990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6188,13 @@
         <v>11946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -6209,13 +6203,13 @@
         <v>54525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -6224,13 +6218,13 @@
         <v>66470</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,7 +6280,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6298,13 +6292,13 @@
         <v>128297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -6313,13 +6307,13 @@
         <v>81361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -6328,13 +6322,13 @@
         <v>209657</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6343,13 @@
         <v>27324</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>108</v>
@@ -6364,13 +6358,13 @@
         <v>116186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -6379,13 +6373,13 @@
         <v>143510</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6435,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6453,13 +6447,13 @@
         <v>238133</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -6468,13 +6462,13 @@
         <v>206740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>403</v>
@@ -6483,13 +6477,13 @@
         <v>444873</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6498,13 @@
         <v>53049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -6519,13 +6513,13 @@
         <v>195409</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -6534,13 +6528,13 @@
         <v>248458</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,7 +6590,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6608,13 +6602,13 @@
         <v>391182</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>324</v>
@@ -6623,13 +6617,13 @@
         <v>358769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>703</v>
@@ -6638,13 +6632,13 @@
         <v>749951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6653,13 @@
         <v>57543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>197</v>
@@ -6674,13 +6668,13 @@
         <v>223477</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
@@ -6689,13 +6683,13 @@
         <v>281020</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6757,13 @@
         <v>1678512</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>1322</v>
@@ -6778,13 +6772,13 @@
         <v>1413352</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>2953</v>
@@ -6793,13 +6787,13 @@
         <v>3091864</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>261</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6808,13 @@
         <v>287145</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>992</v>
@@ -6829,13 +6823,13 @@
         <v>1082025</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>1264</v>
@@ -6844,13 +6838,13 @@
         <v>1369170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>270</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,7 +6900,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +6924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953BC9AF-A4FC-4F9B-AF78-C42CDD3E0D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D674B49-885C-43BA-9A99-164849723A20}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6947,7 +6941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7054,13 +7048,13 @@
         <v>84231</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>203</v>
@@ -7069,13 +7063,13 @@
         <v>96667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>326</v>
@@ -7084,13 +7078,13 @@
         <v>180898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7099,13 @@
         <v>13108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -7120,13 +7114,13 @@
         <v>39093</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -7135,13 +7129,13 @@
         <v>52201</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7203,13 @@
         <v>223947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>300</v>
@@ -7224,13 +7218,13 @@
         <v>219180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>493</v>
@@ -7239,13 +7233,13 @@
         <v>443128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7254,13 @@
         <v>36190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -7275,13 +7269,13 @@
         <v>154685</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
@@ -7290,13 +7284,13 @@
         <v>190874</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7358,13 @@
         <v>138245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>274</v>
@@ -7379,13 +7373,13 @@
         <v>171057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>462</v>
@@ -7394,13 +7388,13 @@
         <v>309302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7409,13 @@
         <v>26597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -7430,13 +7424,13 @@
         <v>66780</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -7445,13 +7439,13 @@
         <v>93377</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7513,13 @@
         <v>129491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
@@ -7534,13 +7528,13 @@
         <v>129072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>387</v>
@@ -7549,13 +7543,13 @@
         <v>258562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>316</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7564,13 @@
         <v>18002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>163</v>
@@ -7585,13 +7579,13 @@
         <v>100332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>169</v>
@@ -7600,13 +7594,13 @@
         <v>118334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7668,13 @@
         <v>55162</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>141</v>
@@ -7689,13 +7683,13 @@
         <v>57889</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>236</v>
@@ -7704,13 +7698,13 @@
         <v>113051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7719,13 @@
         <v>13848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -7740,13 +7734,13 @@
         <v>53340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -7755,13 +7749,13 @@
         <v>67188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,7 +7811,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7829,13 +7823,13 @@
         <v>120286</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>244</v>
@@ -7844,13 +7838,13 @@
         <v>122425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -7859,13 +7853,13 @@
         <v>242711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7874,13 @@
         <v>15493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -7895,13 +7889,13 @@
         <v>56961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7910,13 +7904,13 @@
         <v>72454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,7 +7966,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7984,13 +7978,13 @@
         <v>235735</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>380</v>
@@ -7999,13 +7993,13 @@
         <v>348062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>644</v>
@@ -8014,13 +8008,13 @@
         <v>583797</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8029,13 @@
         <v>46638</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -8050,13 +8044,13 @@
         <v>107976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>355</v>
+        <v>594</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M23" s="7">
         <v>134</v>
@@ -8065,13 +8059,13 @@
         <v>154614</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,7 +8121,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8139,13 +8133,13 @@
         <v>284711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>468</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>355</v>
@@ -8154,13 +8148,13 @@
         <v>253373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>695</v>
@@ -8169,13 +8163,13 @@
         <v>538084</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,13 +8184,13 @@
         <v>63518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>475</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>323</v>
@@ -8205,13 +8199,13 @@
         <v>275195</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M26" s="7">
         <v>357</v>
@@ -8220,13 +8214,13 @@
         <v>338714</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8294,13 +8288,13 @@
         <v>1271807</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>2126</v>
@@ -8309,13 +8303,13 @@
         <v>1397726</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M28" s="7">
         <v>3689</v>
@@ -8324,13 +8318,13 @@
         <v>2669534</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8345,13 +8339,13 @@
         <v>233394</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="H29" s="7">
         <v>1159</v>
@@ -8360,13 +8354,13 @@
         <v>854361</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>1271</v>
@@ -8375,13 +8369,13 @@
         <v>1087754</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,7 +8431,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
